--- a/spliced/falling/2023-03-25_18-02-03/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-02-03/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0036651915870606</v>
+        <v>0.0937678143382072</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1434006094932556</v>
+        <v>0.0774271711707115</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0604756586253643</v>
+        <v>-0.1965458989143371</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2081523388624191</v>
+        <v>-0.1837177276611328</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1316414624452591</v>
+        <v>0.2562579810619354</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1007927656173706</v>
+        <v>0.0125227374956011</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.4978551864624023</v>
+        <v>-0.0036651915870606</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2622139155864715</v>
+        <v>0.1434006094932556</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.034500241279602</v>
+        <v>-0.0604756586253643</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.328340083360672</v>
+        <v>0.2081523388624191</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.4218024611473083</v>
+        <v>0.1316414624452591</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5737552046775818</v>
+        <v>0.1007927656173706</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.957962274551392</v>
+        <v>-0.4978551864624023</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2176207453012466</v>
+        <v>-0.2622139155864715</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.633592844009399</v>
+        <v>-1.034500241279602</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.301142930984497</v>
+        <v>-0.328340083360672</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.674507141113281</v>
+        <v>-0.4218024611473083</v>
       </c>
       <c r="C7" t="n">
-        <v>2.831360340118408</v>
+        <v>-0.5737552046775818</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.7254024744033813</v>
+        <v>-2.957962274551392</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9521862268447876</v>
+        <v>-0.2176207453012466</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.527926683425903</v>
+        <v>-2.633592844009399</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.2622139155864715</v>
+        <v>1.301142930984497</v>
       </c>
       <c r="B9" t="n">
-        <v>1.557553648948669</v>
+        <v>-3.674507141113281</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6866125464439392</v>
+        <v>2.831360340118408</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.219134330749511</v>
+        <v>0.7254024744033813</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.9372199773788452</v>
+        <v>0.9521862268447876</v>
       </c>
       <c r="C10" t="n">
-        <v>2.843730449676514</v>
+        <v>-1.527926683425903</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8478809595108032</v>
+        <v>-0.2622139155864715</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.9918924570083618</v>
+        <v>1.557553648948669</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.8237518072128296</v>
+        <v>-0.6866125464439392</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.0302378293126821</v>
+        <v>1.219134330749511</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.6291912198066711</v>
+        <v>-0.9372199773788452</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0180205255746841</v>
+        <v>2.843730449676514</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.0595593601465225</v>
+        <v>0.8478809595108032</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.2151772826910019</v>
+        <v>-0.9918924570083618</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1901318132877349</v>
+        <v>-0.8237518072128296</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0241291765123605</v>
+        <v>-0.0302378293126821</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3474296033382416</v>
+        <v>-0.6291912198066711</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1518000066280365</v>
+        <v>-0.0180205255746841</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.0592539273202419</v>
+        <v>-0.0595593601465225</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4436408877372741</v>
+        <v>-0.2151772826910019</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2559525370597839</v>
+        <v>0.1901318132877349</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.057115901261568</v>
+        <v>0.0241291765123605</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0777326002717018</v>
+        <v>0.3474296033382416</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1259909570217132</v>
+        <v>0.1518000066280365</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.0335975885391235</v>
+        <v>-0.0592539273202419</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0216857157647609</v>
+        <v>0.4436408877372741</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.110566608607769</v>
+        <v>0.2559525370597839</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0045814891345798</v>
+        <v>0.057115901261568</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0555887371301651</v>
+        <v>0.0777326002717018</v>
       </c>
       <c r="C18" t="n">
-        <v>0.012980886735022</v>
+        <v>-0.1259909570217132</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0044287731871008</v>
+        <v>-0.0335975885391235</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0375682115554809</v>
+        <v>-0.0216857157647609</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0296269636601209</v>
+        <v>-0.110566608607769</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.0070249503478407</v>
+        <v>0.0045814891345798</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0122173046693205</v>
+        <v>0.0555887371301651</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0006108652451075</v>
+        <v>0.012980886735022</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.0004581489483825</v>
+        <v>-0.0044287731871008</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0073303831741213</v>
+        <v>0.0375682115554809</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0157297793775796</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.0102319931611418</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.020616702735424</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0047342055477201</v>
+        <v>0.0296269636601209</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-02-03/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-02-03/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0937678143382072</v>
+        <v>-0.0310014113783836</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0774271711707115</v>
+        <v>0.0154243474826216</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1965458989143371</v>
+        <v>0.0794124826788902</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1837177276611328</v>
+        <v>-0.005192354787141</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2562579810619354</v>
+        <v>0.0403171069920063</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0125227374956011</v>
+        <v>-0.0171042270958423</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.0036651915870606</v>
+        <v>0.0421497002243995</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1434006094932556</v>
+        <v>-0.0251981914043426</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0604756586253643</v>
+        <v>0.0042760567739605</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2081523388624191</v>
+        <v>0.0103847095742821</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1316414624452591</v>
+        <v>-0.0126754539087414</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1007927656173706</v>
+        <v>-0.00335975876078</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.4978551864624023</v>
+        <v>0.0180205255746841</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2622139155864715</v>
+        <v>-0.0375682115554809</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.034500241279602</v>
+        <v>0.0152716310694813</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.328340083360672</v>
+        <v>-0.0210748501121997</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4218024611473083</v>
+        <v>-0.0261144898831844</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5737552046775818</v>
+        <v>-0.0280998013913631</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.957962274551392</v>
+        <v>-0.0584903471171855</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2176207453012466</v>
+        <v>0.0059559359215199</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.633592844009399</v>
+        <v>0.0522289797663688</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.301142930984497</v>
+        <v>0.0937678143382072</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.674507141113281</v>
+        <v>0.0774271711707115</v>
       </c>
       <c r="C9" t="n">
-        <v>2.831360340118408</v>
+        <v>-0.1965458989143371</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.7254024744033813</v>
+        <v>-0.1837177276611328</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9521862268447876</v>
+        <v>0.2562579810619354</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.527926683425903</v>
+        <v>0.0125227374956011</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.2622139155864715</v>
+        <v>-0.0036651915870606</v>
       </c>
       <c r="B11" t="n">
-        <v>1.557553648948669</v>
+        <v>0.1434006094932556</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.6866125464439392</v>
+        <v>-0.0604756586253643</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.219134330749511</v>
+        <v>0.2081523388624191</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.9372199773788452</v>
+        <v>0.1316414624452591</v>
       </c>
       <c r="C12" t="n">
-        <v>2.843730449676514</v>
+        <v>0.1007927656173706</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.8478809595108032</v>
+        <v>-0.4978551864624023</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.9918924570083618</v>
+        <v>-0.2622139155864715</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.8237518072128296</v>
+        <v>-1.034500241279602</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.0302378293126821</v>
+        <v>-0.328340083360672</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.6291912198066711</v>
+        <v>-0.4218024611473083</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0180205255746841</v>
+        <v>-0.5737552046775818</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.0595593601465225</v>
+        <v>-2.957962274551392</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2151772826910019</v>
+        <v>-0.2176207453012466</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1901318132877349</v>
+        <v>-2.633592844009399</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0241291765123605</v>
+        <v>1.301142930984497</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3474296033382416</v>
+        <v>-3.674507141113281</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1518000066280365</v>
+        <v>2.831360340118408</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.0592539273202419</v>
+        <v>0.7254024744033813</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4436408877372741</v>
+        <v>0.9521862268447876</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2559525370597839</v>
+        <v>-1.527926683425903</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.057115901261568</v>
+        <v>-0.2622139155864715</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0777326002717018</v>
+        <v>1.557553648948669</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1259909570217132</v>
+        <v>-0.6866125464439392</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0335975885391235</v>
+        <v>1.219134330749511</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0216857157647609</v>
+        <v>-0.9372199773788452</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.110566608607769</v>
+        <v>2.843730449676514</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0045814891345798</v>
+        <v>0.8478809595108032</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0555887371301651</v>
+        <v>-0.9918924570083618</v>
       </c>
       <c r="C20" t="n">
-        <v>0.012980886735022</v>
+        <v>-0.8237518072128296</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.0302378293126821</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.6291912198066711</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.0180205255746841</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.0595593601465225</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.2151772826910019</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1901318132877349</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.0241291765123605</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3474296033382416</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1518000066280365</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.0592539273202419</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4436408877372741</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2559525370597839</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.057115901261568</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0777326002717018</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.1259909570217132</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.0335975885391235</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.0216857157647609</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.110566608607769</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.0045814891345798</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0555887371301651</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.012980886735022</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
         <v>-0.0044287731871008</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B28" t="n">
         <v>0.0375682115554809</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C28" t="n">
         <v>0.0296269636601209</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.0070249503478407</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.0122173046693205</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0006108652451075</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.0004581489483825</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0073303831741213</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0157297793775796</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.0102319931611418</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.020616702735424</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0047342055477201</v>
       </c>
     </row>
   </sheetData>
